--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Smoke" sheetId="2" r:id="rId3"/>
     <sheet name="Regression" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -193,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -82,7 +82,7 @@
     <t>com.application.tests.VerifyHRDashboardTest</t>
   </si>
   <si>
-    <t>https://app.numberz.in/app</t>
+    <t>http://ec2-52-31-132-254.eu-west-1.compute.amazonaws.com/app/</t>
   </si>
 </sst>
 </file>
